--- a/Data/WorkItems.xlsx
+++ b/Data/WorkItems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genzeon-my.sharepoint.com/personal/ilyas_taj_genzeon_com/Documents/Documents/UiPath/RPA_Acme_test/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BhanuPrakashMinnella\Documents\UiPath\ACME_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC10480769DD50E05BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D2ED453-674C-420D-B718-55484A37562D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A19ED7E-AF31-4E92-80D2-BFECCFEAC193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,79 +380,79 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>86299037</v>
+        <v>86343586</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>43868</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>86299023</v>
+        <v>86343611</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>43655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>86299061</v>
+        <v>86343684</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>43185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>86299027</v>
+        <v>86343612</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>43778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>86299094</v>
+        <v>86343659</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -464,12 +464,12 @@
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>44327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>86299016</v>
+        <v>86343583</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -481,12 +481,12 @@
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>42963</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>86299042</v>
+        <v>86343621</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -498,505 +498,505 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>43118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>86299048</v>
+        <v>86343582</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>43511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>86299030</v>
+        <v>86343670</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>86343568</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>86343597</v>
+      </c>
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>44517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>86299084</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>86343570</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>86343653</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>86343610</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>86343677</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>86298999</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>86343692</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>86343620</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>86343643</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>86343572</v>
+      </c>
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>43010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>86299052</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>43219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>86299064</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>42958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>86299057</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>44700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>86299054</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>86299063</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>44688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>86299080</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>86343649</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>86343590</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>43162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>86343637</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>86343626</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>42814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>86343689</v>
+      </c>
+      <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>43392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>86299078</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>43764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>86343592</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>86343660</v>
+      </c>
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>44670</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>86299088</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>43082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>86343596</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>44570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>86343600</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>86343667</v>
+      </c>
+      <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>43121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>86299021</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>44578</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>86299058</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>42918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>86299060</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>44296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>86299025</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>86343603</v>
+      </c>
+      <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>43309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>86299012</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>44127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>86299069</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>86343665</v>
+      </c>
+      <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>86299059</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>43295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>86299091</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>44760</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>86299075</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>86299035</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>44423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>86298998</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>86343608</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>43674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>86343573</v>
+      </c>
+      <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>86299051</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>43478</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>86299038</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>43641</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>86299043</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
       <c r="D33" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>86299076</v>
+        <v>86343633</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>42889</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>86299020</v>
+        <v>86343635</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="1">
-        <v>43272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>86299002</v>
+        <v>86343638</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="1">
-        <v>43376</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>86299066</v>
+        <v>86343680</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1008,80 +1008,80 @@
         <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>44719</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>86299036</v>
+        <v>86343686</v>
       </c>
       <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>86343563</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>86343617</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>42945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>86343599</v>
+      </c>
+      <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>44094</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>86299071</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>86299062</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>44182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>86299001</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
       <c r="D41" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="1">
-        <v>43164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>86299011</v>
+        <v>86343576</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -1093,80 +1093,80 @@
         <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>43309</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>86299070</v>
+        <v>86343595</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>44268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>86299086</v>
+        <v>86343567</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="1">
-        <v>44427</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>86299090</v>
+        <v>86343571</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="1">
-        <v>43676</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>86299028</v>
+        <v>86343628</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="1">
-        <v>44235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>86299095</v>
+        <v>86343688</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1178,12 +1178,12 @@
         <v>2</v>
       </c>
       <c r="E47" s="1">
-        <v>44258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>86299053</v>
+        <v>86343636</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -1195,41 +1195,41 @@
         <v>2</v>
       </c>
       <c r="E48" s="1">
-        <v>44602</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42863</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>86299000</v>
+        <v>86343644</v>
       </c>
       <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>86343564</v>
+      </c>
+      <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="D49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>42760</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>86299022</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
       <c r="D50" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>42856</v>
+        <v>43016</v>
       </c>
     </row>
   </sheetData>

--- a/Data/WorkItems.xlsx
+++ b/Data/WorkItems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BhanuPrakashMinnella\Documents\UiPath\ACME_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A19ED7E-AF31-4E92-80D2-BFECCFEAC193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A6AAC3-B86E-40E4-9DA5-EB0ED36CA078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
